--- a/LPMP/public/filePemetaanMutu/1 _ 2021.xlsx
+++ b/LPMP/public/filePemetaanMutu/1 _ 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Dropbox\My PC (DESKTOP-BFVJV55)\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30C7F90-693A-42B1-9BEF-4199412F69CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C2197B-B398-4139-A5B9-8814363FDB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>Tahun</t>
   </si>
@@ -296,93 +296,6 @@
   </si>
   <si>
     <t xml:space="preserve">Menindaklanjuti hasil pengawasan proses pembelajaran </t>
-  </si>
-  <si>
-    <t>5.12</t>
-  </si>
-  <si>
-    <t>5.53</t>
-  </si>
-  <si>
-    <t>4.75</t>
-  </si>
-  <si>
-    <t>6.04</t>
-  </si>
-  <si>
-    <t>6.15</t>
-  </si>
-  <si>
-    <t>5.22</t>
-  </si>
-  <si>
-    <t>6.94</t>
-  </si>
-  <si>
-    <t>5.77</t>
-  </si>
-  <si>
-    <t>6.03</t>
-  </si>
-  <si>
-    <t>2.85</t>
-  </si>
-  <si>
-    <t>6.53</t>
-  </si>
-  <si>
-    <t>6.54</t>
-  </si>
-  <si>
-    <t>6.76</t>
-  </si>
-  <si>
-    <t>6.48</t>
-  </si>
-  <si>
-    <t>6.88</t>
-  </si>
-  <si>
-    <t>4.69</t>
-  </si>
-  <si>
-    <t>6.5</t>
-  </si>
-  <si>
-    <t>6.41</t>
-  </si>
-  <si>
-    <t>6.37</t>
-  </si>
-  <si>
-    <t>6.9</t>
-  </si>
-  <si>
-    <t>6.72</t>
-  </si>
-  <si>
-    <t>4.57</t>
-  </si>
-  <si>
-    <t>5.93</t>
-  </si>
-  <si>
-    <t>6.66</t>
-  </si>
-  <si>
-    <t>3.57</t>
-  </si>
-  <si>
-    <t>4.66</t>
-  </si>
-  <si>
-    <t>5.9</t>
-  </si>
-  <si>
-    <t>5.29</t>
-  </si>
-  <si>
-    <t>5.97</t>
   </si>
 </sst>
 </file>
@@ -416,14 +329,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -732,13 +640,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="7" max="7" width="90.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -789,8 +698,8 @@
       <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>92</v>
+      <c r="H2" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -815,8 +724,8 @@
       <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>93</v>
+      <c r="H3" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -841,8 +750,8 @@
       <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>94</v>
+      <c r="H4" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -867,8 +776,8 @@
       <c r="G5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>95</v>
+      <c r="H5" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -893,8 +802,8 @@
       <c r="G6" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>96</v>
+      <c r="H6" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -919,8 +828,8 @@
       <c r="G7" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>97</v>
+      <c r="H7" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -945,8 +854,8 @@
       <c r="G8" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>98</v>
+      <c r="H8" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -971,8 +880,8 @@
       <c r="G9" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>99</v>
+      <c r="H9" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -997,8 +906,8 @@
       <c r="G10" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>100</v>
+      <c r="H10" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -1049,8 +958,8 @@
       <c r="G12" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>101</v>
+      <c r="H12" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -1075,8 +984,8 @@
       <c r="G13" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>102</v>
+      <c r="H13" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -1101,8 +1010,8 @@
       <c r="G14" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>103</v>
+      <c r="H14" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -1153,8 +1062,8 @@
       <c r="G16" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>104</v>
+      <c r="H16" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -1179,8 +1088,8 @@
       <c r="G17" t="s">
         <v>45</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>105</v>
+      <c r="H17" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -1205,8 +1114,8 @@
       <c r="G18" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>104</v>
+      <c r="H18" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -1231,8 +1140,8 @@
       <c r="G19" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>106</v>
+      <c r="H19" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -1257,8 +1166,8 @@
       <c r="G20" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>107</v>
+      <c r="H20" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -1283,8 +1192,8 @@
       <c r="G21" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>105</v>
+      <c r="H21" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -1309,8 +1218,8 @@
       <c r="G22" t="s">
         <v>56</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>104</v>
+      <c r="H22" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -1335,8 +1244,8 @@
       <c r="G23" t="s">
         <v>58</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>108</v>
+      <c r="H23" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
@@ -1361,8 +1270,8 @@
       <c r="G24" t="s">
         <v>60</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>104</v>
+      <c r="H24" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -1387,8 +1296,8 @@
       <c r="G25" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>109</v>
+      <c r="H25" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -1413,8 +1322,8 @@
       <c r="G26" t="s">
         <v>64</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>110</v>
+      <c r="H26" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
@@ -1439,8 +1348,8 @@
       <c r="G27" t="s">
         <v>66</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>111</v>
+      <c r="H27" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -1465,8 +1374,8 @@
       <c r="G28" t="s">
         <v>68</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>112</v>
+      <c r="H28" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -1491,8 +1400,8 @@
       <c r="G29" t="s">
         <v>70</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>110</v>
+      <c r="H29" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -1517,8 +1426,8 @@
       <c r="G30" t="s">
         <v>72</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>113</v>
+      <c r="H30" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
@@ -1543,8 +1452,8 @@
       <c r="G31" t="s">
         <v>74</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>114</v>
+      <c r="H31" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
@@ -1569,8 +1478,8 @@
       <c r="G32" t="s">
         <v>76</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>114</v>
+      <c r="H32" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
@@ -1595,8 +1504,8 @@
       <c r="G33" t="s">
         <v>78</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>115</v>
+      <c r="H33" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
@@ -1621,8 +1530,8 @@
       <c r="G34" t="s">
         <v>81</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>116</v>
+      <c r="H34" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -1647,8 +1556,8 @@
       <c r="G35" t="s">
         <v>83</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>117</v>
+      <c r="H35" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
@@ -1673,8 +1582,8 @@
       <c r="G36" t="s">
         <v>85</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>118</v>
+      <c r="H36" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
@@ -1699,8 +1608,8 @@
       <c r="G37" t="s">
         <v>87</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>119</v>
+      <c r="H37" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
@@ -1725,8 +1634,8 @@
       <c r="G38" t="s">
         <v>89</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>93</v>
+      <c r="H38" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
@@ -1751,12 +1660,12 @@
       <c r="G39" t="s">
         <v>91</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>120</v>
+      <c r="H39" s="1">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="B654" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection password="83AF" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>